--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,23 +33,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>доплатить 10,50</t>
-  </si>
-  <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>доплата 5,90</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +92,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,19 +131,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -166,10 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,47 +165,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -290,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,10 +280,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +314,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -533,17 +489,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -551,355 +507,237 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43252</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>43366</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43267</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="2">
+        <v>322</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>43606</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>122</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="2">
+        <v>472</v>
+      </c>
+      <c r="D3" s="4">
         <f>SUM(C3,-C2)</f>
+        <v>150</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="14">
+        <f>PRODUCT(D3,E3)</f>
+        <v>685.5</v>
+      </c>
+      <c r="G3" s="17">
+        <v>685.5</v>
+      </c>
+      <c r="H3" s="17">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>43639</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>542</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM(C4,-C3)</f>
+        <v>70</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="14">
+        <f>PRODUCT(D4,E4)</f>
+        <v>319.90000000000003</v>
+      </c>
+      <c r="G4" s="17">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="H4" s="17">
+        <v>319.89999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>582</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(C5,-C4)</f>
+        <v>40</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="14">
+        <f>PRODUCT(D5,E5)</f>
+        <v>179.60000000000002</v>
+      </c>
+      <c r="G5" s="17">
+        <v>179.6</v>
+      </c>
+      <c r="H5" s="17">
+        <v>182.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>622</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(C6,-C5)</f>
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="14">
+        <f>PRODUCT(D6,E6)</f>
+        <v>179.60000000000002</v>
+      </c>
+      <c r="G6" s="17">
+        <v>179.6</v>
+      </c>
+      <c r="H6" s="17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>43731</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>722</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(C7,-C6)</f>
         <v>100</v>
       </c>
-      <c r="E3" s="20">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="20">
-        <f>PRODUCT(D3,E3)</f>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E7" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="14">
+        <f>PRODUCT(D7,E7)</f>
+        <v>449</v>
+      </c>
+      <c r="G7" s="17">
+        <v>449</v>
+      </c>
+      <c r="H7" s="17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>43745</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>222</v>
-      </c>
-      <c r="D4" s="5">
-        <f>SUM(C4,-C3)</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f>PRODUCT(D4,E4)</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43366</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>322</v>
-      </c>
-      <c r="D5" s="5">
-        <f>SUM(C5,-C4)</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43606</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>472</v>
-      </c>
-      <c r="D6" s="5">
-        <f>SUM(C6,-C5)</f>
-        <v>150</v>
-      </c>
-      <c r="E6" s="21">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="20">
-        <f>PRODUCT(D6,E6)</f>
-        <v>685.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43639</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>542</v>
-      </c>
-      <c r="D8" s="5">
-        <f>SUM(C8,-C6)</f>
-        <v>70</v>
-      </c>
-      <c r="E8" s="21">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="20">
-        <f>PRODUCT(D8,E8)</f>
-        <v>319.90000000000003</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43686</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>582</v>
-      </c>
-      <c r="D9" s="5">
-        <f>SUM(C9,-C8)</f>
-        <v>40</v>
-      </c>
-      <c r="E9" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="20">
-        <f>PRODUCT(D9,E9)</f>
-        <v>179.60000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="22" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43691</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>622</v>
-      </c>
-      <c r="D11" s="5">
-        <f>SUM(C11,-C9)</f>
-        <v>40</v>
-      </c>
-      <c r="E11" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="20">
-        <f>PRODUCT(D11,E11)</f>
-        <v>179.60000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43731</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>722</v>
-      </c>
-      <c r="D13" s="5">
-        <f>SUM(C13,-C11)</f>
-        <v>100</v>
-      </c>
-      <c r="E13" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F13" s="20">
-        <f>PRODUCT(D13,E13)</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>43745</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="G9" s="17">
+        <f>SUM(G3:G8)</f>
+        <v>1813.6</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>1813.6000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -909,12 +747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,12 +761,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -51,11 +51,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -489,17 +491,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -513,7 +515,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -539,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43366</v>
       </c>
@@ -555,7 +557,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43606</v>
       </c>
@@ -583,7 +585,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43639</v>
       </c>
@@ -611,7 +613,7 @@
         <v>319.89999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43686</v>
       </c>
@@ -639,7 +641,7 @@
         <v>182.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43691</v>
       </c>
@@ -667,7 +669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43731</v>
       </c>
@@ -695,49 +697,85 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43745</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17">
         <v>5.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="5" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>872</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(C9,-C7)</f>
+        <v>150</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="14">
+        <f>PRODUCT(D9,E9)</f>
+        <v>673.5</v>
+      </c>
+      <c r="G9" s="17">
+        <v>673.5</v>
+      </c>
+      <c r="H9" s="17">
+        <v>673.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="17">
-        <f>SUM(G3:G8)</f>
-        <v>1813.6</v>
-      </c>
-      <c r="H9" s="17">
-        <f>SUM(H3:H8)</f>
-        <v>1813.6000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="17">
+        <f>SUM(G3:G9)</f>
+        <v>2487.1</v>
+      </c>
+      <c r="H10" s="17">
+        <f>SUM(H3:H9)</f>
+        <v>2487.1000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -747,12 +785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -761,12 +799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,32 +750,60 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>44004</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>972</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(C10,-C9)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="14">
+        <f>PRODUCT(D10,E10)</f>
+        <v>449</v>
+      </c>
+      <c r="G10" s="17">
+        <v>449</v>
+      </c>
+      <c r="H10" s="17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="17">
-        <f>SUM(G3:G9)</f>
-        <v>2487.1</v>
-      </c>
-      <c r="H10" s="17">
-        <f>SUM(H3:H9)</f>
-        <v>2487.1000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="17">
+        <f>SUM(G3:G10)</f>
+        <v>2936.1</v>
+      </c>
+      <c r="H11" s="17">
+        <f>SUM(H3:H10)</f>
+        <v>2936.1000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -45,7 +45,7 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +79,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -101,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,26 +116,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -164,30 +141,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,9 +517,9 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -574,14 +538,14 @@
       <c r="E3" s="5">
         <v>4.57</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <f>PRODUCT(D3,E3)</f>
         <v>685.5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <v>685.5</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="11">
         <v>675</v>
       </c>
     </row>
@@ -602,14 +566,14 @@
       <c r="E4" s="5">
         <v>4.57</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="8">
         <f>PRODUCT(D4,E4)</f>
         <v>319.90000000000003</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="11">
         <v>319.89999999999998</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="11">
         <v>319.89999999999998</v>
       </c>
     </row>
@@ -630,14 +594,14 @@
       <c r="E5" s="5">
         <v>4.49</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="8">
         <f>PRODUCT(D5,E5)</f>
         <v>179.60000000000002</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <v>179.6</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="11">
         <v>182.8</v>
       </c>
     </row>
@@ -658,14 +622,14 @@
       <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="8">
         <f>PRODUCT(D6,E6)</f>
         <v>179.60000000000002</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>179.6</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="11">
         <v>180</v>
       </c>
     </row>
@@ -686,14 +650,14 @@
       <c r="E7" s="5">
         <v>4.49</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="8">
         <f>PRODUCT(D7,E7)</f>
         <v>449</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>449</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <v>450</v>
       </c>
     </row>
@@ -707,17 +671,17 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>5.9</v>
       </c>
     </row>
@@ -738,14 +702,14 @@
       <c r="E9" s="5">
         <v>4.49</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="8">
         <f>PRODUCT(D9,E9)</f>
         <v>673.5</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <v>673.5</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="11">
         <v>673.5</v>
       </c>
     </row>
@@ -766,44 +730,120 @@
       <c r="E10" s="5">
         <v>4.49</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <f>PRODUCT(D10,E10)</f>
         <v>449</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <v>449</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(C11,-C10)</f>
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="8">
+        <f>PRODUCT(D11,E11)</f>
+        <v>471</v>
+      </c>
+      <c r="G11" s="11">
+        <v>471</v>
+      </c>
+      <c r="H11" s="11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1172</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(C12,-C11)</f>
+        <v>100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f>PRODUCT(D12,E12)</f>
+        <v>471</v>
+      </c>
+      <c r="G12" s="11">
+        <v>471</v>
+      </c>
+      <c r="H12" s="11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1276</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM(C13,-C12)</f>
+        <v>104</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="8">
+        <f>PRODUCT(D13,E13)</f>
+        <v>489.84</v>
+      </c>
+      <c r="G13" s="11">
+        <v>489.84</v>
+      </c>
+      <c r="H13" s="11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="17">
-        <f>SUM(G3:G10)</f>
-        <v>2936.1</v>
-      </c>
-      <c r="H11" s="17">
-        <f>SUM(H3:H10)</f>
-        <v>2936.1000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>4367.9399999999996</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>4371.1000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>SUM(G14,-H14)</f>
+        <v>-3.160000000000764</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,22 +826,50 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="A14" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1426</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(C14,-C13)</f>
+        <v>150</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f>PRODUCT(D14,E14)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>706.5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>706.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>4367.9399999999996</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>4371.1000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <f>SUM(G2:G14)</f>
+        <v>5074.4399999999996</v>
+      </c>
       <c r="H15" s="12">
-        <f>SUM(G14,-H14)</f>
+        <f>SUM(H2:H14)</f>
+        <v>5077.6000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f>SUM(G15,-H15)</f>
         <v>-3.160000000000764</v>
       </c>
     </row>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
         <v>4.49</v>
       </c>
       <c r="F9" s="8">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" ref="F9:F14" si="0">PRODUCT(D9,E9)</f>
         <v>673.5</v>
       </c>
       <c r="G9" s="11">
@@ -731,7 +731,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="0"/>
         <v>449</v>
       </c>
       <c r="G10" s="11">
@@ -759,7 +759,7 @@
         <v>4.71</v>
       </c>
       <c r="F11" s="8">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="0"/>
         <v>471</v>
       </c>
       <c r="G11" s="11">
@@ -787,7 +787,7 @@
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" si="0"/>
         <v>471</v>
       </c>
       <c r="G12" s="11">
@@ -815,7 +815,7 @@
         <v>4.71</v>
       </c>
       <c r="F13" s="8">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="0"/>
         <v>489.84</v>
       </c>
       <c r="G13" s="11">
@@ -843,7 +843,7 @@
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f>PRODUCT(D14,E14)</f>
+        <f t="shared" si="0"/>
         <v>706.5</v>
       </c>
       <c r="G14" s="11">
@@ -854,22 +854,50 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
+      <c r="A15" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1676</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM(C15,-C14)</f>
+        <v>250</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15" si="1">PRODUCT(D15,E15)</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1177.5</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1177.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="12">
-        <f>SUM(G2:G14)</f>
-        <v>5074.4399999999996</v>
-      </c>
-      <c r="H15" s="12">
-        <f>SUM(H2:H14)</f>
-        <v>5077.6000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="12"/>
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>6251.94</v>
+      </c>
       <c r="H16" s="12">
-        <f>SUM(G15,-H15)</f>
+        <f>SUM(H2:H15)</f>
+        <v>6255.1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <f>SUM(G16,-H16)</f>
         <v>-3.160000000000764</v>
       </c>
     </row>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
         <v>972</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" ref="D10:D16" si="1">SUM(C10,-C9)</f>
         <v>100</v>
       </c>
       <c r="E10" s="5">
@@ -752,7 +752,7 @@
         <v>1072</v>
       </c>
       <c r="D11" s="4">
-        <f>SUM(C11,-C10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E11" s="5">
@@ -780,7 +780,7 @@
         <v>1172</v>
       </c>
       <c r="D12" s="4">
-        <f>SUM(C12,-C11)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E12" s="5">
@@ -808,7 +808,7 @@
         <v>1276</v>
       </c>
       <c r="D13" s="4">
-        <f>SUM(C13,-C12)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="E13" s="5">
@@ -836,7 +836,7 @@
         <v>1426</v>
       </c>
       <c r="D14" s="4">
-        <f>SUM(C14,-C13)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="E14" s="5">
@@ -864,14 +864,14 @@
         <v>1676</v>
       </c>
       <c r="D15" s="4">
-        <f>SUM(C15,-C14)</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="E15" s="5">
         <v>4.71</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ref="F15" si="1">PRODUCT(D15,E15)</f>
+        <f t="shared" ref="F15" si="2">PRODUCT(D15,E15)</f>
         <v>1177.5</v>
       </c>
       <c r="G15" s="11">
@@ -882,22 +882,50 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
+      <c r="A16" s="3">
+        <v>44406</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1726</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16" si="3">PRODUCT(D16,E16)</f>
+        <v>248</v>
+      </c>
+      <c r="G16" s="11">
+        <v>248</v>
+      </c>
+      <c r="H16" s="11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <f>SUM(G2:G15)</f>
         <v>6251.94</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="12">
         <f>SUM(H2:H15)</f>
         <v>6255.1</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <f>SUM(G16,-H16)</f>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
+        <f>SUM(G17,-H17)</f>
         <v>-3.160000000000764</v>
       </c>
     </row>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -909,24 +909,52 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44435</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1926</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17" si="4">SUM(C17,-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17" si="5">PRODUCT(D17,E17)</f>
+        <v>992</v>
+      </c>
+      <c r="G17" s="11">
+        <v>992</v>
+      </c>
+      <c r="H17" s="11">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>6251.94</v>
-      </c>
-      <c r="H17" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>6255.1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="12"/>
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>7491.94</v>
+      </c>
       <c r="H18" s="12">
-        <f>SUM(G17,-H17)</f>
-        <v>-3.160000000000764</v>
+        <f>SUM(H2:H17)</f>
+        <v>7495.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>3.160000000000764</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/225ee.xlsx
+++ b/sputnik/personal/ee/225ee.xlsx
@@ -85,12 +85,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -152,6 +158,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,7 +471,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,7 +919,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="13">
         <v>44435</v>
       </c>
       <c r="B17" s="2" t="s">
